--- a/02_設計/07_シーケンス図/【フォーマット】シーケンス図.xlsx
+++ b/02_設計/07_シーケンス図/【フォーマット】シーケンス図.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\01_画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="530" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A6461D-CCA2-496B-B3EC-9347241FDACC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -139,23 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能ID</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名称</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>凡例</t>
     <rPh sb="0" eb="2">
       <t>ハンレイ</t>
@@ -177,25 +161,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F0-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>補足</t>
     <rPh sb="0" eb="2">
       <t>ホソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S0-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -698,7 +699,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60D355D9-897C-4014-8A65-E03D995F390C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D355D9-897C-4014-8A65-E03D995F390C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +770,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{922605B5-FE77-4284-B5AF-2AACFAC36734}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922605B5-FE77-4284-B5AF-2AACFAC36734}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -832,7 +833,7 @@
         <xdr:cNvPr id="4" name="フレーム 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91401D0E-1DAB-4B31-99E5-CE259FFAA58F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91401D0E-1DAB-4B31-99E5-CE259FFAA58F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +900,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1897D542-EFCD-4874-AB14-CB5D4EA7BCA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1897D542-EFCD-4874-AB14-CB5D4EA7BCA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,7 +956,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC0E80EE-543D-4E21-AB2A-DCDA71F8C7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0E80EE-543D-4E21-AB2A-DCDA71F8C7BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1014,7 @@
         <xdr:cNvPr id="21" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4E3D5C-C2D2-4095-99CD-AE1ABD719AEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4E3D5C-C2D2-4095-99CD-AE1ABD719AEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1062,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1E9E976-67C1-429B-A181-B322AD5D471A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E9E976-67C1-429B-A181-B322AD5D471A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,7 +1125,7 @@
         <xdr:cNvPr id="23" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23C6B1BC-99F3-47AE-9663-69E6029AF523}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C6B1BC-99F3-47AE-9663-69E6029AF523}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1177,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DD25675-EAD9-48AF-B6D8-5701D444C848}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD25675-EAD9-48AF-B6D8-5701D444C848}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1245,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18BC0ABC-FB16-47D3-9F33-8DA571C56378}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BC0ABC-FB16-47D3-9F33-8DA571C56378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1316,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FFBF984-C004-45C2-86B4-13DFE010201C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFBF984-C004-45C2-86B4-13DFE010201C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1379,7 @@
         <xdr:cNvPr id="4" name="フレーム 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C84C7FB6-0E5C-42D1-8AEB-B84892D0CDF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84C7FB6-0E5C-42D1-8AEB-B84892D0CDF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1446,7 @@
         <xdr:cNvPr id="6" name="直線コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA28CFF7-1E2F-43F8-9925-08356D5ED85F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA28CFF7-1E2F-43F8-9925-08356D5ED85F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1502,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5303E7F-A5C4-4D47-98F2-B7ED858DBA33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5303E7F-A5C4-4D47-98F2-B7ED858DBA33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1560,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F785CB37-22BE-488F-B664-5FF1ED7B4C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F785CB37-22BE-488F-B664-5FF1ED7B4C38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1654,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63852897-C736-46AD-B42D-E28A1E15DEFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63852897-C736-46AD-B42D-E28A1E15DEFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1712,7 @@
         <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9FB8AAA-410E-4A20-A083-1EC8A8A475B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FB8AAA-410E-4A20-A083-1EC8A8A475B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1806,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76D9923E-2441-4FD4-BF31-CA1F2E5C4AE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D9923E-2441-4FD4-BF31-CA1F2E5C4AE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1900,7 @@
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51E2E0C6-A4FC-4E48-B618-66766ECF4FC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E2E0C6-A4FC-4E48-B618-66766ECF4FC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1983,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D2F7CC2-9F0C-4FD3-9661-A6DC51752292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2F7CC2-9F0C-4FD3-9661-A6DC51752292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2068,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{277F0E45-117D-47D6-B996-2868854CDCEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277F0E45-117D-47D6-B996-2868854CDCEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2126,7 @@
         <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D50A4DA-CB7E-46ED-A623-2D6CC8454F93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D50A4DA-CB7E-46ED-A623-2D6CC8454F93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2184,7 @@
         <xdr:cNvPr id="34" name="直線コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D3BAEDD-AA4B-481E-9EAB-FA78CD3EAADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3BAEDD-AA4B-481E-9EAB-FA78CD3EAADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2242,7 @@
         <xdr:cNvPr id="37" name="直線コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C789BE57-AA9A-4762-A460-86366F3186EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C789BE57-AA9A-4762-A460-86366F3186EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2300,7 @@
         <xdr:cNvPr id="44" name="正方形/長方形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEB8CFC-71C7-4848-90CE-15DF3F599A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEB8CFC-71C7-4848-90CE-15DF3F599A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2358,7 @@
         <xdr:cNvPr id="46" name="正方形/長方形 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0737B3E5-A03E-47B2-B3CF-A0EADD0B80C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0737B3E5-A03E-47B2-B3CF-A0EADD0B80C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2416,7 @@
         <xdr:cNvPr id="47" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED98EF03-400B-4E85-A738-83FBC7575875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED98EF03-400B-4E85-A738-83FBC7575875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2469,7 @@
         <xdr:cNvPr id="49" name="正方形/長方形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A80C629-F363-4907-91C8-A5ABF1224D5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A80C629-F363-4907-91C8-A5ABF1224D5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2548,7 @@
         <xdr:cNvPr id="50" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9F018F9-C2DE-49EB-8148-73769AD4C25C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F018F9-C2DE-49EB-8148-73769AD4C25C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2596,7 @@
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{281C5429-BA38-483A-A4D7-B614F1DFB02B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281C5429-BA38-483A-A4D7-B614F1DFB02B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2659,7 @@
         <xdr:cNvPr id="52" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B36628FC-A50A-4E3B-868A-143CD2EAFA2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36628FC-A50A-4E3B-868A-143CD2EAFA2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2711,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8D4526B-D777-47E7-B1D7-629C76C49EC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D4526B-D777-47E7-B1D7-629C76C49EC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2774,7 @@
         <xdr:cNvPr id="57" name="正方形/長方形 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{896D3186-17BF-4738-B983-9AC18CBA8C97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896D3186-17BF-4738-B983-9AC18CBA8C97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2832,7 @@
         <xdr:cNvPr id="59" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16618D0D-F2BA-4D0B-A119-20C94AD2974A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16618D0D-F2BA-4D0B-A119-20C94AD2974A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2885,7 @@
         <xdr:cNvPr id="60" name="正方形/長方形 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BB4B3D7-5207-45E7-A2BB-242E8847C20D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB4B3D7-5207-45E7-A2BB-242E8847C20D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2938,7 @@
         <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B749F76-F86C-490D-B4B3-1BE11212DF94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B749F76-F86C-490D-B4B3-1BE11212DF94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +3005,7 @@
         <xdr:cNvPr id="63" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDDFAED9-890D-4569-86EC-5F7BFCD5983D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDFAED9-890D-4569-86EC-5F7BFCD5983D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3058,7 @@
         <xdr:cNvPr id="64" name="正方形/長方形 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E34BAF4-E5F2-4816-BA42-F51BA556F3DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E34BAF4-E5F2-4816-BA42-F51BA556F3DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3111,7 @@
         <xdr:cNvPr id="65" name="テキスト ボックス 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B990882B-8843-4B5B-8A1F-44BDCAD3A54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B990882B-8843-4B5B-8A1F-44BDCAD3A54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3177,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18D5723A-FE8C-4D37-9140-7B02EDBE24F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D5723A-FE8C-4D37-9140-7B02EDBE24F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +3240,7 @@
         <xdr:cNvPr id="67" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBDBEE8A-32B2-432F-A331-749381116C05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBEE8A-32B2-432F-A331-749381116C05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3296,7 +3297,7 @@
         <xdr:cNvPr id="70" name="グループ化 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BA5881E-6DC0-43AA-87EC-EAE0CDE63DB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA5881E-6DC0-43AA-87EC-EAE0CDE63DB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,8 +3305,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="578645" y="6200775"/>
-          <a:ext cx="6391275" cy="2362200"/>
+          <a:off x="581026" y="5953125"/>
+          <a:ext cx="6438900" cy="2266950"/>
           <a:chOff x="396549" y="8327160"/>
           <a:chExt cx="4062512" cy="6803814"/>
         </a:xfrm>
@@ -3315,7 +3316,7 @@
           <xdr:cNvPr id="71" name="正方形/長方形 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8220CAEE-8703-471A-B46E-491E1379B3F9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8220CAEE-8703-471A-B46E-491E1379B3F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3366,7 +3367,7 @@
           <xdr:cNvPr id="72" name="テキスト ボックス 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AEEDE11-62CF-4175-8029-0DA8DD722D99}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEEDE11-62CF-4175-8029-0DA8DD722D99}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3440,7 +3441,7 @@
         <xdr:cNvPr id="73" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3F4D203-18F7-4857-A501-95EDF81F8257}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F4D203-18F7-4857-A501-95EDF81F8257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3493,7 @@
         <xdr:cNvPr id="75" name="テキスト ボックス 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0B6B92D-D924-4C40-AC6E-FD26F9E837B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B6B92D-D924-4C40-AC6E-FD26F9E837B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,7 +3551,7 @@
         <xdr:cNvPr id="76" name="テキスト ボックス 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6365FE97-B2DF-4944-9F57-EE086EC749C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6365FE97-B2DF-4944-9F57-EE086EC749C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3614,7 @@
         <xdr:cNvPr id="77" name="フローチャート: カード 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AAADA68-29A7-4651-BC15-912F958A9AC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAADA68-29A7-4651-BC15-912F958A9AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3680,7 @@
         <xdr:cNvPr id="78" name="直線コネクタ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45604C1A-425E-4D11-A7A7-B5679C220EB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45604C1A-425E-4D11-A7A7-B5679C220EB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3730,7 +3731,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F13E5683-C2F5-4692-9D68-36111BE42374}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13E5683-C2F5-4692-9D68-36111BE42374}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3789,7 @@
         <xdr:cNvPr id="81" name="テキスト ボックス 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96BD6C1D-4EA8-485B-8815-7148F3220DD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BD6C1D-4EA8-485B-8815-7148F3220DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,7 +3852,7 @@
         <xdr:cNvPr id="82" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69734F14-B674-40F9-A9A5-A12DBBF0A96C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69734F14-B674-40F9-A9A5-A12DBBF0A96C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,14 +4156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AAE25D-EA43-4FE5-BBFF-112166FF36B9}">
   <dimension ref="E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="11" spans="5:5" ht="58.5">
+    <row r="11" spans="5:5" ht="58.2">
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
@@ -4170,21 +4171,21 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43ECED-C49E-487B-A707-8B19853E3EDC}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4845,6 +4846,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -4857,111 +4954,15 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C2583A-6D47-4609-B73A-F5276E0A7DF6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4971,7 +4972,7 @@
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="31" t="s">
@@ -4989,7 +4990,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
@@ -5040,7 +5041,7 @@
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -5077,7 +5078,7 @@
       <c r="AP2" s="28"/>
       <c r="AQ2" s="30"/>
     </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -5091,7 +5092,7 @@
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
@@ -5124,7 +5125,7 @@
       <c r="AP3" s="38"/>
       <c r="AQ3" s="39"/>
     </row>
-    <row r="4" spans="1:43" ht="20.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="8"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5171,7 +5172,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -5396,7 +5397,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="7"/>
     </row>
-    <row r="10" spans="1:43" ht="19.5" thickBot="1">
+    <row r="10" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5424,7 +5425,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
@@ -6930,7 +6931,7 @@
       <c r="AP43" s="2"/>
       <c r="AQ43" s="7"/>
     </row>
-    <row r="44" spans="1:43" ht="19.5" thickBot="1">
+    <row r="44" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -6996,13 +6997,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5130ED-66A7-48A8-8B6C-5065AE621AC2}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7010,10 +7011,10 @@
   <dimension ref="A1:AQ44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="M1" sqref="M1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="31" t="s">
@@ -7031,13 +7032,13 @@
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R1" s="26"/>
       <c r="S1" s="26"/>
@@ -7053,7 +7054,7 @@
       </c>
       <c r="AB1" s="26"/>
       <c r="AC1" s="37">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="AD1" s="26"/>
       <c r="AE1" s="26"/>
@@ -7065,7 +7066,7 @@
       </c>
       <c r="AJ1" s="26"/>
       <c r="AK1" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL1" s="26"/>
       <c r="AM1" s="26"/>
@@ -7088,13 +7089,13 @@
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
@@ -7110,7 +7111,7 @@
       </c>
       <c r="AB2" s="28"/>
       <c r="AC2" s="29">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="AD2" s="28"/>
       <c r="AE2" s="28"/>
@@ -7122,7 +7123,7 @@
       </c>
       <c r="AJ2" s="28"/>
       <c r="AK2" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
@@ -7131,7 +7132,7 @@
       <c r="AP2" s="28"/>
       <c r="AQ2" s="30"/>
     </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -7145,7 +7146,7 @@
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
@@ -7178,7 +7179,7 @@
       <c r="AP3" s="38"/>
       <c r="AQ3" s="39"/>
     </row>
-    <row r="4" spans="1:43" ht="20.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="8"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7225,7 +7226,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -7450,7 +7451,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="7"/>
     </row>
-    <row r="10" spans="1:43" ht="19.5" thickBot="1">
+    <row r="10" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7478,7 +7479,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
@@ -8984,7 +8985,7 @@
       <c r="AP43" s="2"/>
       <c r="AQ43" s="7"/>
     </row>
-    <row r="44" spans="1:43" ht="19.5" thickBot="1">
+    <row r="44" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -9050,20 +9051,20 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7F9B4-2B98-4077-87DB-91B04FC43D58}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
